--- a/stock.xlsx
+++ b/stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\668\so-planner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153C6849-7705-4D05-AE54-9A01AE17C1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D2BEE8-D956-4AA3-ABE3-3C206CE3FA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="2460" windowWidth="38700" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5445" yWindow="5970" windowWidth="38700" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stock" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>stock_qty</t>
   </si>
@@ -42,17 +42,14 @@
     <t>article</t>
   </si>
   <si>
-    <t>400000003ZZZ</t>
-  </si>
-  <si>
-    <t>400000014</t>
+    <t>400000015</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +61,13 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF8BA2B5"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -101,11 +105,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -408,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="N15" sqref="N15:N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,14 +437,14 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
+      <c r="A2">
+        <v>400000011</v>
       </c>
       <c r="B2">
         <v>502</v>
       </c>
       <c r="C2">
-        <v>1000</v>
+        <v>900</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -447,24 +452,47 @@
         <v>3</v>
       </c>
       <c r="B3">
+        <v>509</v>
+      </c>
+      <c r="C3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>400000017</v>
+      </c>
+      <c r="B4">
         <v>502</v>
       </c>
-      <c r="C3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>506</v>
-      </c>
       <c r="C4">
-        <v>100</v>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>400000018</v>
+      </c>
+      <c r="B5">
+        <v>502</v>
+      </c>
+      <c r="C5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>400000021</v>
+      </c>
+      <c r="B6">
+        <v>500</v>
+      </c>
+      <c r="C6">
+        <v>50000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>